--- a/outputs/gantt_sample.xlsx
+++ b/outputs/gantt_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B23433-FA08-449C-BB30-CFFD1E5337FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AC6C46-93D5-471C-95B4-72B438FBDBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="23">
   <si>
     <t>formation_id</t>
   </si>
@@ -55,30 +55,52 @@
   </si>
   <si>
     <t>D01</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
   </si>
   <si>
     <t>start</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>end</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D03</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JB35</t>
+  </si>
+  <si>
+    <t>JB18</t>
+  </si>
+  <si>
+    <t>A505</t>
+  </si>
+  <si>
+    <t>A506</t>
+  </si>
+  <si>
+    <t>A507</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +123,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +143,28 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA70D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DC3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -123,16 +172,268 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -426,143 +727,550 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="N6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="O6" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.600000000000001" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.600000000000001" thickTop="1"/>
+    <row r="14" spans="1:15">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="6:12">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="6:12">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="6:12">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="6:12">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="6:12">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="6:12">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="6:12">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="6:12">
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
